--- a/Industrials/POWL.xlsx
+++ b/Industrials/POWL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B66153-597F-DC4B-A87B-231845AF7B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7425FA-9347-9047-9EB4-234354DD285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>284.45</v>
-    <v>74.040000000000006</v>
-    <v>0.87450000000000006</v>
-    <v>-6.96</v>
-    <v>-2.6629999999999997E-2</v>
-    <v>-1.4</v>
-    <v>-5.5030000000000001E-3</v>
+    <v>350.48</v>
+    <v>75.05</v>
+    <v>0.90800000000000003</v>
+    <v>-10.210000000000001</v>
+    <v>-2.9357999999999999E-2</v>
+    <v>2.44</v>
+    <v>7.228E-3</v>
     <v>USD</v>
     <v>Powell Industries, Inc. develops, designs, manufactures and services custom-engineered equipment and systems. The Company distributes, controls and monitors the flow of electrical energy and provides protection to motors, transformers and other electrically powered equipment. Its principal products include integrated power control room substations (PCRs), custom-engineered modules, electrical houses (E-Houses), traditional and arc-resistant distribution switchgear and control gear, medium-voltage circuit breakers, monitoring and control communications systems, motor control centers, switches and bus duct systems. Its products are designed for application voltages ranging from approximately 480 volts to 38,000 volts and are used in oil and gas refining, onshore and offshore oil and gas production, petrochemical, liquefied natural gas (LNG) terminals, pipeline, terminal, mining and metals, light rail traction power, electric utility, pulp and paper and other industrial markets.</v>
     <v>2363</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>8550 Mosley Road, HOUSTON, TX, 77075 US</v>
-    <v>261.05</v>
+    <v>349</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45595.997456376565</v>
+    <v>45604.030292476564</v>
     <v>0</v>
-    <v>248.86</v>
-    <v>3049706496</v>
+    <v>332.42</v>
+    <v>4046615270</v>
     <v>POWELL INDUSTRIES, INC.</v>
     <v>POWELL INDUSTRIES, INC.</v>
-    <v>259.79000000000002</v>
-    <v>23.8066</v>
-    <v>261.36</v>
-    <v>254.4</v>
-    <v>253</v>
+    <v>346.42</v>
+    <v>31.5886</v>
+    <v>347.77</v>
+    <v>337.56</v>
+    <v>340</v>
     <v>11987840</v>
     <v>POWL</v>
     <v>POWELL INDUSTRIES, INC. (XNAS:POWL)</v>
-    <v>409700</v>
-    <v>384786</v>
+    <v>398953</v>
+    <v>388710</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2137,9 +2137,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2866,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>254.4</v>
+        <v>337.56</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>2.9494260116054161</v>
+        <v>3.9135544197292069</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.6629999999999997E-2</v>
+        <v>-2.9357999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>20.888400657534248</v>
+        <v>27.716542945205479</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3049706496</v>
+        <v>4046615270</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>5.3119865866593868E-2</v>
+        <v>4.003345739364049E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.87450000000000006</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.53839171588490609</v>
+        <v>-0.65211178019054428</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3426,8 +3426,8 @@
         <v>7.8313253012048278E-2</v>
       </c>
       <c r="K16" s="65">
-        <f>AVERAGE(F16:J16)</f>
-        <v>-9.4624352683503027E-2</v>
+        <f>AVERAGE(G16:J16)</f>
+        <v>5.2371733058664716E-2</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3563,8 +3563,8 @@
         <v>0.10576923076923084</v>
       </c>
       <c r="K19" s="65">
-        <f>AVERAGE(F19:J19)</f>
-        <v>7.7284236899621522E-2</v>
+        <f>AVERAGE(G19:J19)</f>
+        <v>0.10696032571032571</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/Industrials/POWL.xlsx
+++ b/Industrials/POWL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7425FA-9347-9047-9EB4-234354DD285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD1871-78F7-D842-9516-B5EF5C2C1154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,13 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>350.48</v>
+    <v>364.97989999999999</v>
     <v>75.05</v>
-    <v>0.90800000000000003</v>
-    <v>-10.210000000000001</v>
-    <v>-2.9357999999999999E-2</v>
-    <v>2.44</v>
-    <v>7.228E-3</v>
+    <v>0.86140000000000005</v>
+    <v>10.48</v>
+    <v>3.7626E-2</v>
+    <v>5.8</v>
+    <v>2.0069E-2</v>
     <v>USD</v>
     <v>Powell Industries, Inc. develops, designs, manufactures and services custom-engineered equipment and systems. The Company distributes, controls and monitors the flow of electrical energy and provides protection to motors, transformers and other electrically powered equipment. Its principal products include integrated power control room substations (PCRs), custom-engineered modules, electrical houses (E-Houses), traditional and arc-resistant distribution switchgear and control gear, medium-voltage circuit breakers, monitoring and control communications systems, motor control centers, switches and bus duct systems. Its products are designed for application voltages ranging from approximately 480 volts to 38,000 volts and are used in oil and gas refining, onshore and offshore oil and gas production, petrochemical, liquefied natural gas (LNG) terminals, pipeline, terminal, mining and metals, light rail traction power, electric utility, pulp and paper and other industrial markets.</v>
     <v>2363</v>
@@ -1954,25 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>8550 Mosley Road, HOUSTON, TX, 77075 US</v>
-    <v>349</v>
+    <v>297.12130000000002</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45604.030292476564</v>
+    <v>45615.040795659377</v>
     <v>0</v>
-    <v>332.42</v>
-    <v>4046615270</v>
+    <v>285</v>
+    <v>3464605638</v>
     <v>POWELL INDUSTRIES, INC.</v>
     <v>POWELL INDUSTRIES, INC.</v>
-    <v>346.42</v>
-    <v>31.5886</v>
-    <v>347.77</v>
-    <v>337.56</v>
-    <v>340</v>
+    <v>288.24</v>
+    <v>26.064699999999998</v>
+    <v>278.52999999999997</v>
+    <v>289.01</v>
+    <v>294.81</v>
     <v>11987840</v>
     <v>POWL</v>
     <v>POWELL INDUSTRIES, INC. (XNAS:POWL)</v>
-    <v>398953</v>
-    <v>388710</v>
+    <v>510004</v>
+    <v>396737</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2137,9 +2137,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2865,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54989D48-4DCD-DB43-B1DE-662CF0EB5313}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2899,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>337.56</v>
+        <v>289.01</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>3.9135544197292069</v>
+        <v>3.3506824352030948</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2946,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.9357999999999999E-2</v>
+        <v>3.7626E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>27.716542945205479</v>
+        <v>23.730175602739727</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2994,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>4046615270</v>
+        <v>3464605638</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.003345739364049E-2</v>
+        <v>4.6758568485594551E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3043,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.90800000000000003</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.65211178019054428</v>
+        <v>-0.5936709889661953</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
